--- a/計算機システム統計調査/データ.xlsx
+++ b/計算機システム統計調査/データ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/len/Documents/GitHub/report/計算機システム統計調査/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3B2222-16CE-4B44-BE78-63DD3DDEA0A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DADA9-8AE8-A442-A28F-4F03DBB02F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="720" windowWidth="28300" windowHeight="17040" xr2:uid="{99C4D6B7-150E-F14F-A002-F7630DD7B1E6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{99C4D6B7-150E-F14F-A002-F7630DD7B1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>所得増加率[%]</t>
   </si>
@@ -56,6 +59,43 @@
   </si>
   <si>
     <t>福岡</t>
+  </si>
+  <si>
+    <t>接続率[%]</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セツゾクリツ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人口[1000人]</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ニン </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所得[k円/人]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショトク </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">エン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ニン </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人口密度[人/km^2]</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ジンコウミツド </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ニン </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -148,6 +188,5318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2595406514714872E-2"/>
+          <c:y val="9.674825031496688E-2"/>
+          <c:w val="0.74144965505196048"/>
+          <c:h val="0.80224976864943143"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接続率[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3BE-E94F-BA06-F1A76AF33BF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377503648"/>
+        <c:axId val="377505280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>所得増加率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.80694873810147572"/>
+              <c:y val="0.90912556921671639"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377505280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377505280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>接続率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="9.4390306456523462E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377503648"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2595406514714872E-2"/>
+          <c:y val="9.674825031496688E-2"/>
+          <c:w val="0.74144965505196048"/>
+          <c:h val="0.80224976864943143"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接続率[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F54-D24C-8575-0EB509EBDDF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377503648"/>
+        <c:axId val="377505280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人口増加率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.80694876316023723"/>
+              <c:y val="0.90912555547078444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377505280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377505280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>接続率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="9.4390306456523462E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377503648"/>
+        <c:crossesAt val="-1.4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2595406514714872E-2"/>
+          <c:y val="9.674825031496688E-2"/>
+          <c:w val="0.77486407282074721"/>
+          <c:h val="0.81139076784884001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接続率[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A7A-9F4E-8105-139CFF564640}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377503648"/>
+        <c:axId val="377505280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人口</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8682086290901484"/>
+              <c:y val="0.90912555547078444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377505280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377505280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>接続率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="9.4390306456523462E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377503648"/>
+        <c:crossesAt val="-1.4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2595406514714872E-2"/>
+          <c:y val="9.674825031496688E-2"/>
+          <c:w val="0.74411109283984167"/>
+          <c:h val="0.81139076784884001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接続率[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F277-5244-A1EA-FE943D4A454C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377503648"/>
+        <c:axId val="377505280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>所得</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>円</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8682086290901484"/>
+              <c:y val="0.90912555547078444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377505280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377505280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>接続率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="9.4390306456523462E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377503648"/>
+        <c:crossesAt val="-1.4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2595406514714872E-2"/>
+          <c:y val="9.674825031496688E-2"/>
+          <c:w val="0.67701370851513798"/>
+          <c:h val="0.81139076784884001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接続率[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAF9-EF4C-8465-A42EB7EEE0B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377503648"/>
+        <c:axId val="377505280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人口密度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>人</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/km^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8682086290901484"/>
+              <c:y val="0.90912555547078444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377505280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377505280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>接続率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="9.4390306456523462E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377503648"/>
+        <c:crossesAt val="-1.4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289747</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99246</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>238769</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAD942F-EF79-9E4E-9E80-25099FDFE5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369898</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E217D5F-1BEF-0144-B7EF-6A2EF47F2CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>344498</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D07565C-9A8D-B344-9A62-7AD77C81DCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03BB1B0-332B-9B44-855B-67BC5094D3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161794</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3426F8FD-3974-6C4F-BF6F-C27D96FFA8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +5801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B176970-40FD-FD46-BB0A-239E7F956C3F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="143" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +5812,9 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -469,7 +5823,9 @@
       <c r="B2" s="2">
         <v>-0.8</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>90.2</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -478,7 +5834,9 @@
       <c r="B3" s="2">
         <v>0.4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
@@ -487,7 +5845,9 @@
       <c r="B4" s="2">
         <v>2.5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -496,7 +5856,9 @@
       <c r="B5" s="2">
         <v>1.8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
@@ -505,7 +5867,9 @@
       <c r="B6" s="2">
         <v>0.6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
@@ -514,7 +5878,9 @@
       <c r="B7" s="2">
         <v>0.7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>91.9</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -523,7 +5889,9 @@
       <c r="B8" s="2">
         <v>2.5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
@@ -532,95 +5900,465 @@
       <c r="B9" s="2">
         <v>-0.6</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>87.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673EBAC7-0032-7B46-8B0C-BFE6361785BE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>-0.7</v>
       </c>
+      <c r="C2" s="2">
+        <v>90.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>-1.3</v>
       </c>
+      <c r="C3" s="2">
+        <v>89.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>-0.6</v>
       </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>-0.6</v>
       </c>
+      <c r="C5" s="2">
+        <v>86.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>-0.5</v>
       </c>
+      <c r="C6" s="2">
+        <v>92.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>-0.1</v>
       </c>
+      <c r="C7" s="2">
+        <v>91.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>-0.8</v>
       </c>
+      <c r="C8" s="2">
+        <v>87.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>87.6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B30B4-052E-2B4E-948A-EB9559F78FCA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2313</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1037</v>
+      </c>
+      <c r="C3" s="2">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1935</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2109</v>
+      </c>
+      <c r="C5" s="2">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2041</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8836</v>
+      </c>
+      <c r="C7" s="2">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1408</v>
+      </c>
+      <c r="C8" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5091</v>
+      </c>
+      <c r="C9" s="2">
+        <v>87.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED371E9-4CF5-0E47-9D77-89AF43F42830}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2697</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2467</v>
+      </c>
+      <c r="C3" s="2">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2861</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2821</v>
+      </c>
+      <c r="C5" s="2">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2717</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3013</v>
+      </c>
+      <c r="C7" s="2">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3126</v>
+      </c>
+      <c r="C8" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2759</v>
+      </c>
+      <c r="C9" s="2">
+        <v>87.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC698692-75DD-E847-BAD0-8757F18A01B9}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>184</v>
+      </c>
+      <c r="C2" s="2">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>155</v>
+      </c>
+      <c r="C5" s="2">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4646</v>
+      </c>
+      <c r="C7" s="2">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231</v>
+      </c>
+      <c r="C8" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C9" s="2">
+        <v>87.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>